--- a/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>6,33; 47,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 46,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 56,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 55,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>4,64; 40,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 29,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 23,98</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>1,64; 14,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>2,65; 22,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0,0; 11,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>5,35; 29,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 15,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>1,06; 8,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>2,15; 11,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>1,75; 16,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 8,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>3,96; 17,44</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>6,58; 19,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,0; 19,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>1,04; 9,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>7,94; 20,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>4,07; 21,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1034,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>1,69; 16,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>2,65; 10,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>7,54; 17,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>1,96; 9,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>5,9; 14,17</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>3,33; 15,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>0,0; 15,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>0,84; 7,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>2,62; 18,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>2,13; 19,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>8,19; 27,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>4,14; 13,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>1,26; 10,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,53; 4,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>7,71; 21,17</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>4,39; 13,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0,0; 14,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>2,02; 12,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>3,51; 14,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>7,23; 21,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 21,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>0,0; 8,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>4,72; 15,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>6,36; 14,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>1,52; 12,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>1,73; 7,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>5,36; 12,89</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>6,61; 12,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>2,62; 10,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>1,74; 5,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>7,53; 15,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>7,03; 15,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>0,88; 7,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,81; 5,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,24; 11,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,72; 12,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>2,42; 7,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,91; 4,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>7,43; 12,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,37%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,06%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 47,91</t>
+          <t>3,81; 17,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>2,45; 22,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 11,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,08</t>
+          <t>6,06; 27,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,83</t>
+          <t>0,0; 18,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,78</t>
+          <t>0,0; 14,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,85; 7,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 40,29</t>
+          <t>4,09; 14,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>1,61; 15,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,28</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,98</t>
+          <t>4,19; 17,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,27 +796,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -826,32 +826,32 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>9,43%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 14,19</t>
+          <t>6,58; 19,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 22,03</t>
+          <t>0,0; 19,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,5</t>
+          <t>1,04; 9,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 29,33</t>
+          <t>7,88; 20,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,59</t>
+          <t>4,07; 21,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0; 7,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>1,69; 16,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,73</t>
+          <t>2,68; 10,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,55</t>
+          <t>7,54; 17,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 16,69</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,89</t>
+          <t>1,96; 9,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 17,44</t>
+          <t>5,93; 14,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>11,12%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 19,22</t>
+          <t>3,33; 15,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,83</t>
+          <t>0,0; 15,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,3</t>
+          <t>0,84; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 20,48</t>
+          <t>2,71; 19,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 21,93</t>
+          <t>2,13; 19,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,38</t>
+          <t>0; 2,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,61</t>
+          <t>3,58; 24,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 17,85</t>
+          <t>4,14; 13,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,71</t>
+          <t>1,26; 10,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,18</t>
+          <t>0,53; 4,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,17</t>
+          <t>4,24; 19,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 15,12</t>
+          <t>4,39; 13,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,4</t>
+          <t>0,0; 14,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,51</t>
+          <t>2,02; 12,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 18,78</t>
+          <t>3,51; 15,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 19,64</t>
+          <t>7,23; 21,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,41</t>
+          <t>0,0; 21,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0,0; 8,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 27,8</t>
+          <t>4,8; 15,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 13,19</t>
+          <t>6,36; 14,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 10,85</t>
+          <t>1,52; 12,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,79</t>
+          <t>1,73; 7,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 21,17</t>
+          <t>5,45; 12,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>9,46%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,09</t>
+          <t>6,61; 12,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,47</t>
+          <t>2,62; 10,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 12,1</t>
+          <t>1,74; 5,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 14,86</t>
+          <t>7,61; 15,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 21,73</t>
+          <t>7,03; 15,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,65</t>
+          <t>0,88; 7,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,49</t>
+          <t>0,81; 5,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,46</t>
+          <t>5,37; 11,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,01</t>
+          <t>7,72; 12,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 12,92</t>
+          <t>2,42; 7,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,97</t>
+          <t>1,91; 4,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,89</t>
+          <t>7,17; 12,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,73%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,54%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>9,7%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,4%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3,1%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>9,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,61; 12,37</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 10,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 5,74</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 15,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 15,42</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 7,51</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 5,23</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 11,87</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 12,25</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 7,88</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 4,95</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 12,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 17,33</t>
+          <t>3,92; 18,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 22,47</t>
+          <t>2,44; 22,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,37</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 27,71</t>
+          <t>6,19; 26,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,05</t>
+          <t>0,0; 17,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,48</t>
+          <t>0,0; 13,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,82</t>
+          <t>0,85; 7,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 14,83</t>
+          <t>3,79; 14,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 15,54</t>
+          <t>1,61; 14,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 8,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 17,47</t>
+          <t>4,17; 17,43</t>
         </is>
       </c>
     </row>
@@ -864,27 +865,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 19,22</t>
+          <t>6,59; 18,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,83</t>
+          <t>0,0; 18,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,3</t>
+          <t>1,02; 8,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 20,48</t>
+          <t>7,36; 20,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 21,93</t>
+          <t>5,32; 22,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +895,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,38</t>
+          <t>1,69; 16,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 10,62</t>
+          <t>2,6; 10,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 17,85</t>
+          <t>7,25; 17,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,71</t>
+          <t>0,0; 10,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,18</t>
+          <t>1,88; 8,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 14,37</t>
+          <t>6,13; 14,12</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1005,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 15,12</t>
+          <t>2,76; 15,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,4</t>
+          <t>0,0; 14,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,51</t>
+          <t>0,84; 7,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 19,39</t>
+          <t>2,01; 18,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 19,64</t>
+          <t>2,1; 19,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,41</t>
+          <t>0,0; 13,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 24,38</t>
+          <t>3,86; 24,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 13,19</t>
+          <t>4,12; 13,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 10,85</t>
+          <t>1,25; 10,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,79</t>
+          <t>0,53; 4,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 19,01</t>
+          <t>4,95; 18,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,09</t>
+          <t>4,58; 12,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,47</t>
+          <t>0,0; 13,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 12,1</t>
+          <t>2,02; 11,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 15,0</t>
+          <t>3,71; 15,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 21,73</t>
+          <t>6,94; 21,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,65</t>
+          <t>0,0; 22,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,49</t>
+          <t>0,0; 6,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,69</t>
+          <t>5,11; 16,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,01</t>
+          <t>6,7; 14,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 12,92</t>
+          <t>1,47; 12,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,97</t>
+          <t>1,3; 7,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 12,95</t>
+          <t>5,57; 13,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,37</t>
+          <t>6,64; 12,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,34</t>
+          <t>2,68; 9,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,74</t>
+          <t>1,95; 6,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,13</t>
+          <t>7,88; 15,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 15,42</t>
+          <t>7,33; 15,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,51</t>
+          <t>0,9; 7,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,23</t>
+          <t>0,87; 5,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,36</t>
+          <t>5,42; 11,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,25</t>
+          <t>7,54; 12,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,88</t>
+          <t>2,34; 7,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,95</t>
+          <t>1,9; 4,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,0</t>
+          <t>7,13; 12,05</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene algún otro problema</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7065</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9455</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8912</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3112; 14355</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>840; 7724</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6246</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4412; 19210</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5772</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4161</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>466; 3939</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4228; 15773</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>838; 7581</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7597</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5256; 21941</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17244</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2071</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3143</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14366</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6279</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5495</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23523</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2071</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6568</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19860</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9620; 26940</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6300</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>989; 8491</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8239; 23027</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2811; 12080</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1965</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>941; 9153</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2563; 10317</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14413; 33887</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6118</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2863; 13514</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12920; 29746</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8342</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3064</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3839</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12188</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12181</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2932</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3064</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16921</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3036; 16832</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6016</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>921; 8100</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1110; 10450</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>976; 9182</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4178</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3736; 23437</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6453; 21242</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>916; 7777</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>929; 8552</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7539; 28827</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10857</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4749</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8222</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11661</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1852</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9636</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22518</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2774</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17858</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6276; 17240</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4331</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1789; 10090</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3752; 15580</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6141; 18771</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5790</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4522</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5310; 16981</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15109; 32509</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>862; 7285</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2012; 12011</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11419; 26655</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43508</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7827</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12203</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23625</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28837</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>67134</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10676</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>65613</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31374; 57283</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3828; 13864</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6822; 21090</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26759; 51294</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16145; 34298</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>901; 7739</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1873; 11770</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19193; 41055</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52223; 84638</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5690; 18377</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10744; 26956</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>49477; 83611</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>